--- a/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Serie</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,6 +1492,38 @@
         <v>19158</v>
       </c>
     </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>152962</v>
+      </c>
+      <c r="C32">
+        <v>26115</v>
+      </c>
+      <c r="D32">
+        <v>16426</v>
+      </c>
+      <c r="E32">
+        <v>11548</v>
+      </c>
+      <c r="F32">
+        <v>9482</v>
+      </c>
+      <c r="G32">
+        <v>12288</v>
+      </c>
+      <c r="H32">
+        <v>27284</v>
+      </c>
+      <c r="I32">
+        <v>29699</v>
+      </c>
+      <c r="J32">
+        <v>20118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Serie</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1433,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>140748</v>
+        <v>140788</v>
       </c>
       <c r="C30">
         <v>25160</v>
@@ -1457,7 +1460,7 @@
         <v>27190</v>
       </c>
       <c r="J30">
-        <v>18843</v>
+        <v>18883</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1465,7 +1468,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>146036</v>
+        <v>146076</v>
       </c>
       <c r="C31">
         <v>24373</v>
@@ -1489,7 +1492,7 @@
         <v>28316</v>
       </c>
       <c r="J31">
-        <v>19158</v>
+        <v>19198</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1497,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>152962</v>
+        <v>153029</v>
       </c>
       <c r="C32">
         <v>26115</v>
@@ -1518,10 +1521,42 @@
         <v>27284</v>
       </c>
       <c r="I32">
-        <v>29699</v>
+        <v>29723</v>
       </c>
       <c r="J32">
-        <v>20118</v>
+        <v>20162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>165196</v>
+      </c>
+      <c r="C33">
+        <v>30336</v>
+      </c>
+      <c r="D33">
+        <v>17945</v>
+      </c>
+      <c r="E33">
+        <v>10984</v>
+      </c>
+      <c r="F33">
+        <v>11726</v>
+      </c>
+      <c r="G33">
+        <v>13799</v>
+      </c>
+      <c r="H33">
+        <v>29677</v>
+      </c>
+      <c r="I33">
+        <v>29928</v>
+      </c>
+      <c r="J33">
+        <v>20801</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Serie</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1559,6 +1562,38 @@
         <v>20801</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>171950</v>
+      </c>
+      <c r="C34">
+        <v>33123</v>
+      </c>
+      <c r="D34">
+        <v>17511</v>
+      </c>
+      <c r="E34">
+        <v>11152</v>
+      </c>
+      <c r="F34">
+        <v>11341</v>
+      </c>
+      <c r="G34">
+        <v>15161</v>
+      </c>
+      <c r="H34">
+        <v>32203</v>
+      </c>
+      <c r="I34">
+        <v>30009</v>
+      </c>
+      <c r="J34">
+        <v>21451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
